--- a/target/test-classes/inputData/Data.xlsx
+++ b/target/test-classes/inputData/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiq\eclipse-workspace\com.datadriven.hawks\src\test\resources\inputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiq\Downloads\com.datadriven.sharks\com.datadriven.sharks\src\test\resources\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584651D-43E2-43C7-8FB2-E32AE6CCDD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487D6E6-7820-44E3-95BB-F9A31BAC96A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22455" yWindow="1440" windowWidth="17835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="3" r:id="rId1"/>
@@ -25,22 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>eagles@tekschool.us</t>
+    <t>shark@tekschool.us</t>
   </si>
   <si>
-    <t>eagles</t>
+    <t>tigers@tekschool.us</t>
+  </si>
+  <si>
+    <t>titans@tekschool.us</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>147852369</t>
+  </si>
+  <si>
+    <t>student@tekschool.us</t>
+  </si>
+  <si>
+    <t>Tek@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,15 +89,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,100 +379,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6E8424-6FA1-4C5F-8DD1-20E60EA41288}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F3F429D2-B192-4DCD-87F2-89DA952481DA}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{DE16B6D1-830E-44EB-A9A8-81C5EDC2125E}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{B6043EB5-0EB0-451D-B69D-0ABDD8DC6852}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{E45BCA2E-8435-423D-889B-3A8FDDE4CACE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058694C82971B26429AAFA48E503DC2E4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f6662b4ebb8cc483a0072514790c3d38">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73be1997-5176-4b6f-8c0d-c3d135e602db" xmlns:ns3="ad343bc6-8aa6-41a8-9d81-666d0aad6f68" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b15c32be40ccc5ca48bc290d923516b" ns2:_="" ns3:_="">
+    <xsd:import namespace="73be1997-5176-4b6f-8c0d-c3d135e602db"/>
+    <xsd:import namespace="ad343bc6-8aa6-41a8-9d81-666d0aad6f68"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="73be1997-5176-4b6f-8c0d-c3d135e602db" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ad343bc6-8aa6-41a8-9d81-666d0aad6f68" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5EA3C64-44D2-4EBB-A8FA-670594F16F12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73be1997-5176-4b6f-8c0d-c3d135e602db"/>
+    <ds:schemaRef ds:uri="ad343bc6-8aa6-41a8-9d81-666d0aad6f68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B406C554-D3D6-4D19-B6C1-01B40C15CFF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9533802A-4F97-474A-BB29-E7F395BC0263}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>